--- a/Document/05_GUI/PM_Config_GUI.xlsx
+++ b/Document/05_GUI/PM_Config_GUI.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="410">
   <si>
     <t>Heater Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1619,11 +1619,6 @@
   </si>
   <si>
     <t>abort</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Time
-(sec)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2509,6 +2504,15 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2517,15 +2521,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3687,16 +3682,16 @@
       <c r="DE4" s="2"/>
       <c r="DF4" s="2"/>
       <c r="DG4" s="49" t="s">
+        <v>402</v>
+      </c>
+      <c r="DH4" s="49" t="s">
         <v>403</v>
       </c>
-      <c r="DH4" s="49" t="s">
-        <v>404</v>
-      </c>
       <c r="DI4" s="49" t="s">
+        <v>402</v>
+      </c>
+      <c r="DJ4" s="49" t="s">
         <v>403</v>
-      </c>
-      <c r="DJ4" s="49" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="5" spans="2:114" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -6278,7 +6273,7 @@
   <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="U20" sqref="U20"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6343,7 +6338,7 @@
         <v>398</v>
       </c>
       <c r="H5" s="61" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="I5" s="60" t="s">
         <v>400</v>
@@ -10779,7 +10774,7 @@
       <c r="BD15" s="72"/>
       <c r="BE15" s="72"/>
       <c r="BF15" s="73" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="BG15" s="73"/>
       <c r="BH15" s="73"/>
@@ -19152,7 +19147,6 @@
     <mergeCell ref="BF22:BQ22"/>
     <mergeCell ref="CS22:DD22"/>
     <mergeCell ref="AE20:BE20"/>
-    <mergeCell ref="BR20:CR20"/>
     <mergeCell ref="CS7:DD7"/>
     <mergeCell ref="BF9:BQ9"/>
     <mergeCell ref="CS9:DD9"/>
@@ -19167,13 +19161,14 @@
     <mergeCell ref="BF15:BQ15"/>
     <mergeCell ref="BR15:CR15"/>
     <mergeCell ref="CS15:DD15"/>
-    <mergeCell ref="BF20:BQ20"/>
     <mergeCell ref="CS20:DD20"/>
     <mergeCell ref="BR19:CR19"/>
     <mergeCell ref="AE23:BE23"/>
     <mergeCell ref="BR23:CR23"/>
     <mergeCell ref="BF19:BQ19"/>
     <mergeCell ref="CS19:DD19"/>
+    <mergeCell ref="BR20:CR20"/>
+    <mergeCell ref="BF20:BQ20"/>
     <mergeCell ref="CS18:DD18"/>
     <mergeCell ref="AE19:BE19"/>
     <mergeCell ref="AE12:BE12"/>
@@ -19444,7 +19439,7 @@
         <v>14</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D16" s="26"/>
       <c r="E16" s="42" t="s">
@@ -19521,7 +19516,7 @@
       </c>
       <c r="D21" s="44"/>
       <c r="E21" s="9" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F21" s="44"/>
       <c r="G21" s="9"/>
@@ -19530,15 +19525,15 @@
     <row r="22" spans="2:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="155"/>
       <c r="C22" s="42" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D22" s="26"/>
       <c r="E22" s="42" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F22" s="26"/>
       <c r="G22" s="42" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H22" s="67"/>
     </row>
@@ -23542,7 +23537,6 @@
     </row>
   </sheetData>
   <mergeCells count="107">
-    <mergeCell ref="BF21:BQ21"/>
     <mergeCell ref="CS19:DD19"/>
     <mergeCell ref="AE20:BE20"/>
     <mergeCell ref="BR20:CR20"/>
@@ -23581,6 +23575,7 @@
     <mergeCell ref="Q12:AH12"/>
     <mergeCell ref="Q10:AH10"/>
     <mergeCell ref="AI7:AZ7"/>
+    <mergeCell ref="BF21:BQ21"/>
     <mergeCell ref="BS5:CK5"/>
     <mergeCell ref="BS6:CK6"/>
     <mergeCell ref="BS7:CK7"/>
@@ -23662,7 +23657,7 @@
   <dimension ref="B1:DQ47"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:DD24"/>
+      <selection activeCell="CM30" sqref="CM30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -24292,8 +24287,8 @@
       <c r="AB9" s="80"/>
       <c r="AC9" s="80"/>
       <c r="AD9" s="80"/>
-      <c r="AE9" s="82" t="s">
-        <v>212</v>
+      <c r="AE9" s="83" t="s">
+        <v>213</v>
       </c>
       <c r="AF9" s="83"/>
       <c r="AG9" s="83"/>
@@ -24335,49 +24330,49 @@
       <c r="BO9" s="100"/>
       <c r="BP9" s="100"/>
       <c r="BQ9" s="100"/>
-      <c r="BR9" s="83" t="s">
-        <v>213</v>
-      </c>
-      <c r="BS9" s="83"/>
-      <c r="BT9" s="83"/>
-      <c r="BU9" s="83"/>
-      <c r="BV9" s="83"/>
-      <c r="BW9" s="83"/>
-      <c r="BX9" s="83"/>
-      <c r="BY9" s="83"/>
-      <c r="BZ9" s="83"/>
-      <c r="CA9" s="83"/>
-      <c r="CB9" s="83"/>
-      <c r="CC9" s="83"/>
-      <c r="CD9" s="83"/>
-      <c r="CE9" s="83"/>
-      <c r="CF9" s="83"/>
-      <c r="CG9" s="83"/>
-      <c r="CH9" s="83"/>
-      <c r="CI9" s="83"/>
-      <c r="CJ9" s="83"/>
-      <c r="CK9" s="83"/>
-      <c r="CL9" s="83"/>
-      <c r="CM9" s="83"/>
-      <c r="CN9" s="83"/>
-      <c r="CO9" s="83"/>
-      <c r="CP9" s="83"/>
-      <c r="CQ9" s="83"/>
-      <c r="CR9" s="83"/>
-      <c r="CS9" s="100" t="s">
+      <c r="BR9" s="163" t="s">
+        <v>212</v>
+      </c>
+      <c r="BS9" s="164"/>
+      <c r="BT9" s="164"/>
+      <c r="BU9" s="164"/>
+      <c r="BV9" s="164"/>
+      <c r="BW9" s="164"/>
+      <c r="BX9" s="164"/>
+      <c r="BY9" s="164"/>
+      <c r="BZ9" s="164"/>
+      <c r="CA9" s="164"/>
+      <c r="CB9" s="164"/>
+      <c r="CC9" s="164"/>
+      <c r="CD9" s="164"/>
+      <c r="CE9" s="164"/>
+      <c r="CF9" s="164"/>
+      <c r="CG9" s="164"/>
+      <c r="CH9" s="164"/>
+      <c r="CI9" s="164"/>
+      <c r="CJ9" s="164"/>
+      <c r="CK9" s="164"/>
+      <c r="CL9" s="164"/>
+      <c r="CM9" s="164"/>
+      <c r="CN9" s="164"/>
+      <c r="CO9" s="164"/>
+      <c r="CP9" s="164"/>
+      <c r="CQ9" s="164"/>
+      <c r="CR9" s="164"/>
+      <c r="CS9" s="165" t="s">
         <v>79</v>
       </c>
-      <c r="CT9" s="100"/>
-      <c r="CU9" s="100"/>
-      <c r="CV9" s="100"/>
-      <c r="CW9" s="100"/>
-      <c r="CX9" s="100"/>
-      <c r="CY9" s="100"/>
-      <c r="CZ9" s="100"/>
-      <c r="DA9" s="100"/>
-      <c r="DB9" s="100"/>
-      <c r="DC9" s="100"/>
-      <c r="DD9" s="100"/>
+      <c r="CT9" s="165"/>
+      <c r="CU9" s="165"/>
+      <c r="CV9" s="165"/>
+      <c r="CW9" s="165"/>
+      <c r="CX9" s="165"/>
+      <c r="CY9" s="165"/>
+      <c r="CZ9" s="165"/>
+      <c r="DA9" s="165"/>
+      <c r="DB9" s="165"/>
+      <c r="DC9" s="165"/>
+      <c r="DD9" s="165"/>
       <c r="DE9" s="2"/>
     </row>
     <row r="10" spans="2:109" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -24675,47 +24670,47 @@
       <c r="BO12" s="75"/>
       <c r="BP12" s="75"/>
       <c r="BQ12" s="75"/>
-      <c r="BR12" s="167" t="s">
+      <c r="BR12" s="163" t="s">
         <v>216</v>
       </c>
-      <c r="BS12" s="168"/>
-      <c r="BT12" s="168"/>
-      <c r="BU12" s="168"/>
-      <c r="BV12" s="168"/>
-      <c r="BW12" s="168"/>
-      <c r="BX12" s="168"/>
-      <c r="BY12" s="168"/>
-      <c r="BZ12" s="168"/>
-      <c r="CA12" s="168"/>
-      <c r="CB12" s="168"/>
-      <c r="CC12" s="168"/>
-      <c r="CD12" s="168"/>
-      <c r="CE12" s="168"/>
-      <c r="CF12" s="168"/>
-      <c r="CG12" s="168"/>
-      <c r="CH12" s="168"/>
-      <c r="CI12" s="168"/>
-      <c r="CJ12" s="168"/>
-      <c r="CK12" s="168"/>
-      <c r="CL12" s="168"/>
-      <c r="CM12" s="168"/>
-      <c r="CN12" s="168"/>
-      <c r="CO12" s="168"/>
-      <c r="CP12" s="168"/>
-      <c r="CQ12" s="168"/>
-      <c r="CR12" s="168"/>
-      <c r="CS12" s="166"/>
-      <c r="CT12" s="166"/>
-      <c r="CU12" s="166"/>
-      <c r="CV12" s="166"/>
-      <c r="CW12" s="166"/>
-      <c r="CX12" s="166"/>
-      <c r="CY12" s="166"/>
-      <c r="CZ12" s="166"/>
-      <c r="DA12" s="166"/>
-      <c r="DB12" s="166"/>
-      <c r="DC12" s="166"/>
-      <c r="DD12" s="166"/>
+      <c r="BS12" s="164"/>
+      <c r="BT12" s="164"/>
+      <c r="BU12" s="164"/>
+      <c r="BV12" s="164"/>
+      <c r="BW12" s="164"/>
+      <c r="BX12" s="164"/>
+      <c r="BY12" s="164"/>
+      <c r="BZ12" s="164"/>
+      <c r="CA12" s="164"/>
+      <c r="CB12" s="164"/>
+      <c r="CC12" s="164"/>
+      <c r="CD12" s="164"/>
+      <c r="CE12" s="164"/>
+      <c r="CF12" s="164"/>
+      <c r="CG12" s="164"/>
+      <c r="CH12" s="164"/>
+      <c r="CI12" s="164"/>
+      <c r="CJ12" s="164"/>
+      <c r="CK12" s="164"/>
+      <c r="CL12" s="164"/>
+      <c r="CM12" s="164"/>
+      <c r="CN12" s="164"/>
+      <c r="CO12" s="164"/>
+      <c r="CP12" s="164"/>
+      <c r="CQ12" s="164"/>
+      <c r="CR12" s="164"/>
+      <c r="CS12" s="165"/>
+      <c r="CT12" s="165"/>
+      <c r="CU12" s="165"/>
+      <c r="CV12" s="165"/>
+      <c r="CW12" s="165"/>
+      <c r="CX12" s="165"/>
+      <c r="CY12" s="165"/>
+      <c r="CZ12" s="165"/>
+      <c r="DA12" s="165"/>
+      <c r="DB12" s="165"/>
+      <c r="DC12" s="165"/>
+      <c r="DD12" s="165"/>
       <c r="DE12" s="2"/>
     </row>
     <row r="13" spans="2:109" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -25287,35 +25282,35 @@
       <c r="DE17" s="2"/>
     </row>
     <row r="18" spans="2:121" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="164"/>
-      <c r="C18" s="164"/>
-      <c r="D18" s="164"/>
-      <c r="E18" s="164"/>
-      <c r="F18" s="164"/>
-      <c r="G18" s="164"/>
-      <c r="H18" s="164"/>
-      <c r="I18" s="164"/>
-      <c r="J18" s="164"/>
-      <c r="K18" s="164"/>
-      <c r="L18" s="164"/>
-      <c r="M18" s="164"/>
-      <c r="N18" s="164"/>
-      <c r="O18" s="164"/>
-      <c r="P18" s="164"/>
-      <c r="Q18" s="164"/>
-      <c r="R18" s="164"/>
-      <c r="S18" s="164"/>
-      <c r="T18" s="164"/>
-      <c r="U18" s="164"/>
-      <c r="V18" s="164"/>
-      <c r="W18" s="164"/>
-      <c r="X18" s="164"/>
-      <c r="Y18" s="164"/>
-      <c r="Z18" s="164"/>
-      <c r="AA18" s="164"/>
-      <c r="AB18" s="164"/>
-      <c r="AC18" s="164"/>
-      <c r="AD18" s="165"/>
+      <c r="B18" s="167"/>
+      <c r="C18" s="167"/>
+      <c r="D18" s="167"/>
+      <c r="E18" s="167"/>
+      <c r="F18" s="167"/>
+      <c r="G18" s="167"/>
+      <c r="H18" s="167"/>
+      <c r="I18" s="167"/>
+      <c r="J18" s="167"/>
+      <c r="K18" s="167"/>
+      <c r="L18" s="167"/>
+      <c r="M18" s="167"/>
+      <c r="N18" s="167"/>
+      <c r="O18" s="167"/>
+      <c r="P18" s="167"/>
+      <c r="Q18" s="167"/>
+      <c r="R18" s="167"/>
+      <c r="S18" s="167"/>
+      <c r="T18" s="167"/>
+      <c r="U18" s="167"/>
+      <c r="V18" s="167"/>
+      <c r="W18" s="167"/>
+      <c r="X18" s="167"/>
+      <c r="Y18" s="167"/>
+      <c r="Z18" s="167"/>
+      <c r="AA18" s="167"/>
+      <c r="AB18" s="167"/>
+      <c r="AC18" s="167"/>
+      <c r="AD18" s="168"/>
       <c r="AE18" s="74"/>
       <c r="AF18" s="74"/>
       <c r="AG18" s="74"/>
@@ -25425,7 +25420,7 @@
       <c r="AA19" s="71"/>
       <c r="AB19" s="71"/>
       <c r="AC19" s="71"/>
-      <c r="AD19" s="163"/>
+      <c r="AD19" s="166"/>
       <c r="AE19" s="72"/>
       <c r="AF19" s="72"/>
       <c r="AG19" s="72"/>
@@ -25535,7 +25530,7 @@
       <c r="AA20" s="71"/>
       <c r="AB20" s="71"/>
       <c r="AC20" s="71"/>
-      <c r="AD20" s="163"/>
+      <c r="AD20" s="166"/>
       <c r="AE20" s="74"/>
       <c r="AF20" s="74"/>
       <c r="AG20" s="74"/>
@@ -25645,7 +25640,7 @@
       <c r="AA21" s="71"/>
       <c r="AB21" s="71"/>
       <c r="AC21" s="71"/>
-      <c r="AD21" s="163"/>
+      <c r="AD21" s="166"/>
       <c r="AE21" s="72"/>
       <c r="AF21" s="72"/>
       <c r="AG21" s="72"/>
@@ -25755,7 +25750,7 @@
       <c r="AA22" s="71"/>
       <c r="AB22" s="71"/>
       <c r="AC22" s="71"/>
-      <c r="AD22" s="163"/>
+      <c r="AD22" s="166"/>
       <c r="AE22" s="74"/>
       <c r="AF22" s="74"/>
       <c r="AG22" s="74"/>
@@ -25865,7 +25860,7 @@
       <c r="AA23" s="71"/>
       <c r="AB23" s="71"/>
       <c r="AC23" s="71"/>
-      <c r="AD23" s="163"/>
+      <c r="AD23" s="166"/>
       <c r="AE23" s="72"/>
       <c r="AF23" s="72"/>
       <c r="AG23" s="72"/>
@@ -25975,7 +25970,7 @@
       <c r="AA24" s="71"/>
       <c r="AB24" s="71"/>
       <c r="AC24" s="71"/>
-      <c r="AD24" s="163"/>
+      <c r="AD24" s="166"/>
       <c r="AE24" s="74"/>
       <c r="AF24" s="74"/>
       <c r="AG24" s="74"/>
